--- a/analisis/calculos.xlsx
+++ b/analisis/calculos.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplos" sheetId="1" r:id="rId1"/>
+    <sheet name="IVA" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId3"/>
+    <sheet name="IVA - Precios" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Descuentos</t>
   </si>
@@ -35,14 +38,48 @@
   </si>
   <si>
     <t>Total 1</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Subtotal + 0.14*Subtotal</t>
+  </si>
+  <si>
+    <t>subtotal * (1 + 0.14)</t>
+  </si>
+  <si>
+    <t>Total/1.14</t>
+  </si>
+  <si>
+    <t>Precio Venta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVA </t>
+  </si>
+  <si>
+    <t>Odoo</t>
+  </si>
+  <si>
+    <t>Calculo</t>
+  </si>
+  <si>
+    <t>Inverso</t>
+  </si>
+  <si>
+    <t>Configuracion:  Porcentaje sobre el precio, impuesto incluido. Y Impuesto Incluido</t>
+  </si>
+  <si>
+    <t>Configuracion:  Porcentaje sobre el precio. Y Impuesto Incluido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -79,10 +116,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -399,6 +440,10 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
@@ -570,4 +615,344 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <f>D4/1.14</f>
+        <v>31.05263157894737</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <f>I5/J5</f>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <f>D5*0.14</f>
+        <v>4.3473684210526322</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <f>D5+D6</f>
+        <v>35.400000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E4:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>SUM(E4:E8)</f>
+        <v>15.749999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>E9*0.14</f>
+        <v>2.2050000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>E9+E10</f>
+        <v>17.954999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3/(1+D2)</f>
+        <v>1.7543859649122806</v>
+      </c>
+      <c r="E3" s="3">
+        <f>C3/D2</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="F3" s="2">
+        <f>D3*D2</f>
+        <v>0.24561403508771931</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="5">
+        <f>D3-C3</f>
+        <v>-0.2456140350877194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1.72</v>
+      </c>
+      <c r="E7">
+        <f>D7*0.14</f>
+        <v>0.24080000000000001</v>
+      </c>
+      <c r="G7">
+        <f>D7+E7</f>
+        <v>1.9607999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>3.44</v>
+      </c>
+      <c r="E13" s="4">
+        <f>C13*0.14</f>
+        <v>0.48160000000000003</v>
+      </c>
+      <c r="G13" s="4">
+        <f>C13+E13</f>
+        <v>3.9215999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.44</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <f>C14+E14</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6">
+        <f>G15/1.14</f>
+        <v>3.5087719298245617</v>
+      </c>
+      <c r="E15" s="4">
+        <f>C15*0.14</f>
+        <v>0.49122807017543868</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" s="4">
+        <f>C15+E15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>1.75</v>
+      </c>
+      <c r="E20" s="4">
+        <f>C20*0.14</f>
+        <v>0.24500000000000002</v>
+      </c>
+      <c r="G20" s="4">
+        <f>C20+E20</f>
+        <v>1.9950000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>3.51</v>
+      </c>
+      <c r="E21">
+        <v>0.49</v>
+      </c>
+      <c r="G21">
+        <f>C21+E21</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6">
+        <f>G22/1.14</f>
+        <v>3.5087719298245617</v>
+      </c>
+      <c r="E22" s="4">
+        <f>G22 - (G22/1.14)</f>
+        <v>0.49122807017543835</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4">
+        <f>C25*0.14</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G25" s="4">
+        <f>C25+E25</f>
+        <v>4.5600000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>